--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cdh1-Itgae.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cdh1-Itgae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Itgae</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H2">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I2">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J2">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4249903333333333</v>
+        <v>0.04603166666666667</v>
       </c>
       <c r="N2">
-        <v>1.274971</v>
+        <v>0.138095</v>
       </c>
       <c r="O2">
-        <v>0.5185732768841619</v>
+        <v>0.04905212483134392</v>
       </c>
       <c r="P2">
-        <v>0.5263242412708687</v>
+        <v>0.05053519477430333</v>
       </c>
       <c r="Q2">
-        <v>0.1687014711145555</v>
+        <v>0.03499345712666666</v>
       </c>
       <c r="R2">
-        <v>1.518313240031</v>
+        <v>0.3149411141399999</v>
       </c>
       <c r="S2">
-        <v>0.2269195340941489</v>
+        <v>0.04454571806692674</v>
       </c>
       <c r="T2">
-        <v>0.2490172912638678</v>
+        <v>0.04619141029844095</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,55 +590,55 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H3">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I3">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J3">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.036207</v>
+        <v>0.4479076666666666</v>
       </c>
       <c r="N3">
-        <v>0.07241399999999999</v>
+        <v>1.343723</v>
       </c>
       <c r="O3">
-        <v>0.04417978754688111</v>
+        <v>0.4772980074206014</v>
       </c>
       <c r="P3">
-        <v>0.02989342001299534</v>
+        <v>0.4917289078367152</v>
       </c>
       <c r="Q3">
-        <v>0.014372501409</v>
+        <v>0.3405011998306666</v>
       </c>
       <c r="R3">
-        <v>0.08623500845399999</v>
+        <v>3.064510798475999</v>
       </c>
       <c r="S3">
-        <v>0.01933238223680425</v>
+        <v>0.4334487556974908</v>
       </c>
       <c r="T3">
-        <v>0.01414333198918385</v>
+        <v>0.4494620400481696</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3969536666666666</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H4">
-        <v>1.190861</v>
+        <v>2.280612</v>
       </c>
       <c r="I4">
-        <v>0.4375843187631859</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J4">
-        <v>0.4731252557598102</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.3583403333333333</v>
+        <v>0.0826205</v>
       </c>
       <c r="N4">
-        <v>1.075021</v>
+        <v>0.165241</v>
       </c>
       <c r="O4">
-        <v>0.437246935568957</v>
+        <v>0.08804180628468918</v>
       </c>
       <c r="P4">
-        <v>0.443782338716136</v>
+        <v>0.06046914167566281</v>
       </c>
       <c r="Q4">
-        <v>0.1422445092312222</v>
+        <v>0.06280843458199999</v>
       </c>
       <c r="R4">
-        <v>1.280200583081</v>
+        <v>0.3768506074919999</v>
       </c>
       <c r="S4">
-        <v>0.1913324024322327</v>
+        <v>0.07995342697885921</v>
       </c>
       <c r="T4">
-        <v>0.2099646325067586</v>
+        <v>0.05527147854103828</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2044335</v>
+        <v>0.7602039999999999</v>
       </c>
       <c r="H5">
-        <v>0.408867</v>
+        <v>2.280612</v>
       </c>
       <c r="I5">
-        <v>0.2253585275608331</v>
+        <v>0.9081302434927829</v>
       </c>
       <c r="J5">
-        <v>0.1624415477093853</v>
+        <v>0.9140443705567521</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4249903333333333</v>
+        <v>0.3618636666666666</v>
       </c>
       <c r="N5">
-        <v>1.274971</v>
+        <v>1.085591</v>
       </c>
       <c r="O5">
-        <v>0.5185732768841619</v>
+        <v>0.3856080614633656</v>
       </c>
       <c r="P5">
-        <v>0.5263242412708687</v>
+        <v>0.3972667557133185</v>
       </c>
       <c r="Q5">
-        <v>0.08688226130949998</v>
+        <v>0.2750902068546666</v>
       </c>
       <c r="R5">
-        <v>0.5212935678569999</v>
+        <v>2.475811861692</v>
       </c>
       <c r="S5">
-        <v>0.1168649101110109</v>
+        <v>0.3501823427495062</v>
       </c>
       <c r="T5">
-        <v>0.08549692434900787</v>
+        <v>0.3631194416691033</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,55 +776,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H6">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I6">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J6">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.036207</v>
+        <v>0.04603166666666667</v>
       </c>
       <c r="N6">
-        <v>0.07241399999999999</v>
+        <v>0.138095</v>
       </c>
       <c r="O6">
-        <v>0.04417978754688111</v>
+        <v>0.04905212483134392</v>
       </c>
       <c r="P6">
-        <v>0.02989342001299534</v>
+        <v>0.05053519477430333</v>
       </c>
       <c r="Q6">
-        <v>0.007401923734499999</v>
+        <v>0.0007479685516666667</v>
       </c>
       <c r="R6">
-        <v>0.02960769493799999</v>
+        <v>0.00448781131</v>
       </c>
       <c r="S6">
-        <v>0.009956291869515558</v>
+        <v>0.0009521435994410613</v>
       </c>
       <c r="T6">
-        <v>0.004855933413237678</v>
+        <v>0.000658212993652026</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,25 +838,25 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.2044335</v>
+        <v>0.016249</v>
       </c>
       <c r="H7">
-        <v>0.408867</v>
+        <v>0.032498</v>
       </c>
       <c r="I7">
-        <v>0.2253585275608331</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J7">
-        <v>0.1624415477093853</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3583403333333333</v>
+        <v>0.4479076666666666</v>
       </c>
       <c r="N7">
-        <v>1.075021</v>
+        <v>1.343723</v>
       </c>
       <c r="O7">
-        <v>0.437246935568957</v>
+        <v>0.4772980074206014</v>
       </c>
       <c r="P7">
-        <v>0.443782338716136</v>
+        <v>0.4917289078367152</v>
       </c>
       <c r="Q7">
-        <v>0.0732567685345</v>
+        <v>0.007278051675666667</v>
       </c>
       <c r="R7">
-        <v>0.439540611207</v>
+        <v>0.043668310054</v>
       </c>
       <c r="S7">
-        <v>0.09853732558030662</v>
+        <v>0.009264761605211927</v>
       </c>
       <c r="T7">
-        <v>0.07208868994713982</v>
+        <v>0.006404691976313997</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,60 +900,60 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.3057606666666666</v>
+        <v>0.016249</v>
       </c>
       <c r="H8">
-        <v>0.9172819999999999</v>
+        <v>0.032498</v>
       </c>
       <c r="I8">
-        <v>0.3370571536759812</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J8">
-        <v>0.3644331965308044</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.4249903333333333</v>
+        <v>0.0826205</v>
       </c>
       <c r="N8">
-        <v>1.274971</v>
+        <v>0.165241</v>
       </c>
       <c r="O8">
-        <v>0.5185732768841619</v>
+        <v>0.08804180628468918</v>
       </c>
       <c r="P8">
-        <v>0.5263242412708687</v>
+        <v>0.06046914167566281</v>
       </c>
       <c r="Q8">
-        <v>0.1299453276468889</v>
+        <v>0.0013425005045</v>
       </c>
       <c r="R8">
-        <v>1.169507948822</v>
+        <v>0.005370002018</v>
       </c>
       <c r="S8">
-        <v>0.1747888326790021</v>
+        <v>0.00170896658657345</v>
       </c>
       <c r="T8">
-        <v>0.191810025657993</v>
+        <v>0.0007876010955071105</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.3057606666666666</v>
+        <v>0.016249</v>
       </c>
       <c r="H9">
-        <v>0.9172819999999999</v>
+        <v>0.032498</v>
       </c>
       <c r="I9">
-        <v>0.3370571536759812</v>
+        <v>0.01941085330584189</v>
       </c>
       <c r="J9">
-        <v>0.3644331965308044</v>
+        <v>0.01302484331151171</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.036207</v>
+        <v>0.3618636666666666</v>
       </c>
       <c r="N9">
-        <v>0.07241399999999999</v>
+        <v>1.085591</v>
       </c>
       <c r="O9">
-        <v>0.04417978754688111</v>
+        <v>0.3856080614633656</v>
       </c>
       <c r="P9">
-        <v>0.02989342001299534</v>
+        <v>0.3972667557133185</v>
       </c>
       <c r="Q9">
-        <v>0.011070676458</v>
+        <v>0.005879922719666666</v>
       </c>
       <c r="R9">
-        <v>0.06642405874799999</v>
+        <v>0.035279536318</v>
       </c>
       <c r="S9">
-        <v>0.0148911134405613</v>
+        <v>0.007484981514615454</v>
       </c>
       <c r="T9">
-        <v>0.01089415461057381</v>
+        <v>0.005174337246038572</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,7 +1024,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1030,46 +1033,232 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3057606666666666</v>
+        <v>0.06065600000000001</v>
       </c>
       <c r="H10">
-        <v>0.9172819999999999</v>
+        <v>0.181968</v>
       </c>
       <c r="I10">
-        <v>0.3370571536759812</v>
+        <v>0.07245890320137523</v>
       </c>
       <c r="J10">
-        <v>0.3644331965308044</v>
+        <v>0.07293078613173619</v>
       </c>
       <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.04603166666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.138095</v>
+      </c>
+      <c r="O10">
+        <v>0.04905212483134392</v>
+      </c>
+      <c r="P10">
+        <v>0.05053519477430333</v>
+      </c>
+      <c r="Q10">
+        <v>0.002792096773333334</v>
+      </c>
+      <c r="R10">
+        <v>0.02512887096</v>
+      </c>
+      <c r="S10">
+        <v>0.003554263164976123</v>
+      </c>
+      <c r="T10">
+        <v>0.003685571482210348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.06065600000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.181968</v>
+      </c>
+      <c r="I11">
+        <v>0.07245890320137523</v>
+      </c>
+      <c r="J11">
+        <v>0.07293078613173619</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.3583403333333333</v>
-      </c>
-      <c r="N10">
-        <v>1.075021</v>
-      </c>
-      <c r="O10">
-        <v>0.437246935568957</v>
-      </c>
-      <c r="P10">
-        <v>0.443782338716136</v>
-      </c>
-      <c r="Q10">
-        <v>0.1095663792135555</v>
-      </c>
-      <c r="R10">
-        <v>0.9860974129219999</v>
-      </c>
-      <c r="S10">
-        <v>0.1473772075564178</v>
-      </c>
-      <c r="T10">
-        <v>0.1617290162622376</v>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.4479076666666666</v>
+      </c>
+      <c r="N11">
+        <v>1.343723</v>
+      </c>
+      <c r="O11">
+        <v>0.4772980074206014</v>
+      </c>
+      <c r="P11">
+        <v>0.4917289078367152</v>
+      </c>
+      <c r="Q11">
+        <v>0.02716828742933334</v>
+      </c>
+      <c r="R11">
+        <v>0.244514586864</v>
+      </c>
+      <c r="S11">
+        <v>0.03458449011789863</v>
+      </c>
+      <c r="T11">
+        <v>0.03586217581223169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.06065600000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.181968</v>
+      </c>
+      <c r="I12">
+        <v>0.07245890320137523</v>
+      </c>
+      <c r="J12">
+        <v>0.07293078613173619</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.0826205</v>
+      </c>
+      <c r="N12">
+        <v>0.165241</v>
+      </c>
+      <c r="O12">
+        <v>0.08804180628468918</v>
+      </c>
+      <c r="P12">
+        <v>0.06046914167566281</v>
+      </c>
+      <c r="Q12">
+        <v>0.005011429048000001</v>
+      </c>
+      <c r="R12">
+        <v>0.030068574288</v>
+      </c>
+      <c r="S12">
+        <v>0.006379412719256523</v>
+      </c>
+      <c r="T12">
+        <v>0.00441006203911742</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.06065600000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.181968</v>
+      </c>
+      <c r="I13">
+        <v>0.07245890320137523</v>
+      </c>
+      <c r="J13">
+        <v>0.07293078613173619</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3618636666666666</v>
+      </c>
+      <c r="N13">
+        <v>1.085591</v>
+      </c>
+      <c r="O13">
+        <v>0.3856080614633656</v>
+      </c>
+      <c r="P13">
+        <v>0.3972667557133185</v>
+      </c>
+      <c r="Q13">
+        <v>0.02194920256533333</v>
+      </c>
+      <c r="R13">
+        <v>0.197542823088</v>
+      </c>
+      <c r="S13">
+        <v>0.02794073719924396</v>
+      </c>
+      <c r="T13">
+        <v>0.02897297679817672</v>
       </c>
     </row>
   </sheetData>
